--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>test</t>
   </si>
@@ -26,6 +26,10 @@
   </si>
   <si>
     <t xml:space="preserve">avrage(d(MBRL,MFRL)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05
+</t>
   </si>
   <si>
     <t>0,0</t>
@@ -80,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +95,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -126,7 +136,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -231,14 +243,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,7 +265,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -740,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.000028</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0.036624112912394</v>
       </c>
       <c r="D2" s="3">
-        <v>0.039995234167902</v>
+        <v>0.036624112912394</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -824,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.000039</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.03065871104958304</v>
+        <v>0.030658711049583</v>
       </c>
       <c r="D3" s="3">
-        <v>0.03026077322736644</v>
+        <v>0.030658711049583</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -908,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.0000208</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0.0647317311019</v>
       </c>
       <c r="D4" s="3">
-        <v>0.064731731101</v>
+        <v>0.0647317311019</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -992,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.002134958902995</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0.02666900664863001</v>
+        <v>0.02666900664863</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02502232899563522</v>
+        <v>0.02666900664863</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1076,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.003278918445978491</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.04879829485749972</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.0470093917438292</v>
+        <v>0.0487982948575</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1160,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.00001409</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.05649975977050948</v>
+        <v>0.056499759770509</v>
       </c>
       <c r="D7" s="3">
-        <v>0.05637951444668384</v>
+        <v>0.056499759770509</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1244,13 +1256,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.0000221</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>0.04976392514516506</v>
+        <v>0.049763925145165</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04955252110123145</v>
+        <v>0.049763925145165</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1328,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.00002789</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.11312492280399108</v>
+        <v>0.113124922803991</v>
       </c>
       <c r="D9" s="3">
-        <v>0.11298007711743374</v>
+        <v>0.113124922803991</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1412,13 +1424,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.000002789</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>0.1208120230987825</v>
+        <v>0.120812023098783</v>
       </c>
       <c r="D10" s="3">
-        <v>0.12071603275263847</v>
+        <v>0.120812023098783</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1496,13 +1508,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.00002601</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0.09218171895944886</v>
+        <v>0.092181718959449</v>
       </c>
       <c r="D11" s="3">
-        <v>0.09195333099110486</v>
+        <v>0.092181718959449</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1657,40 +1669,40 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="3"/>
@@ -1758,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -1860,43 +1872,43 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>0.0426943450083541</v>
+        <v>0.03638211899513007</v>
       </c>
       <c r="D15" s="3">
-        <v>0.118512729999999</v>
+        <v>0.04701237890810694</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0775729324999996</v>
+        <v>0.07757293249999969</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0270717584269647</v>
+        <v>0.02110148817741086</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.118510004024481</v>
+        <v>0.111011303976671</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0.00519194769029449</v>
+        <v>0.0115196747261227</v>
       </c>
       <c r="L15" s="3">
-        <v>0.0206344127764962</v>
+        <v>0.02897928657119824</v>
       </c>
       <c r="M15" s="3">
-        <v>0.032608824694429</v>
+        <v>0.05471536082975345</v>
       </c>
       <c r="N15" s="11">
-        <v>0.0403944957476192</v>
+        <v>0.04558669710055444</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="3"/>
@@ -1962,43 +1974,43 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14">
-        <v>0.042706665570811</v>
+        <v>0.03638211899513007</v>
       </c>
       <c r="D16" s="14">
-        <v>0.118512729999999</v>
+        <v>0.04701237890810694</v>
       </c>
       <c r="E16" s="14">
-        <v>0.0775729324999996</v>
+        <v>0.07757293249999969</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <v>0.0270717584269647</v>
+        <v>0.02110148817741086</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>0.118510004024481</v>
+        <v>0.111011303976671</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
       </c>
       <c r="K16" s="14">
-        <v>0.00519194769029449</v>
+        <v>0.0115196747261227</v>
       </c>
       <c r="L16" s="14">
-        <v>0.0206344127764962</v>
+        <v>0.02897928657119824</v>
       </c>
       <c r="M16" s="14">
-        <v>0.032608824694429</v>
+        <v>0.05471536082975345</v>
       </c>
       <c r="N16" s="16">
-        <v>0.0403944957476192</v>
+        <v>0.04558669710055444</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="3"/>
@@ -2066,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2168,43 +2180,43 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
-        <v>0.0358075121037993</v>
+        <v>0.03369062944195669</v>
       </c>
       <c r="D18" s="3">
-        <v>0.101336269999999</v>
+        <v>0.05118181981534248</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0669218174999995</v>
+        <v>0.06692181749999959</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0265221574409156</v>
+        <v>0.01637918869284929</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0.0858886001095678</v>
+        <v>0.1172839520319957</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0.00592144319184441</v>
+        <v>0.01044791438246802</v>
       </c>
       <c r="L18" s="3">
-        <v>0.0263823898004433</v>
+        <v>0.03040156599700562</v>
       </c>
       <c r="M18" s="3">
-        <v>0.0216431736012478</v>
+        <v>0.05696298739738209</v>
       </c>
       <c r="N18" s="3">
-        <v>0.0166894173212193</v>
+        <v>0.04441123070889036</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="3"/>
@@ -2270,43 +2282,43 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
-        <v>0.0358075121037993</v>
+        <v>0.03369062944195669</v>
       </c>
       <c r="D19" s="3">
-        <v>0.101336269999999</v>
+        <v>0.05118181981534248</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0669218174999995</v>
+        <v>0.06692181749999959</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0265221574409156</v>
+        <v>0.01637918869284929</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>0.0858886001095678</v>
+        <v>0.1172839520319957</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>0.00592144319184441</v>
+        <v>0.01044791438246802</v>
       </c>
       <c r="L19" s="3">
-        <v>0.0263823898004433</v>
+        <v>0.03040156599700562</v>
       </c>
       <c r="M19" s="3">
-        <v>0.0216431736012478</v>
+        <v>0.05696298739738209</v>
       </c>
       <c r="N19" s="3">
-        <v>0.0166894173212193</v>
+        <v>0.04441123070889036</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="3"/>
@@ -2374,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -2476,43 +2488,43 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>0.120827720926648</v>
+        <v>0.07445481358104744</v>
       </c>
       <c r="D21" s="3">
-        <v>0.324700000000001</v>
+        <v>0.1737760463610494</v>
       </c>
       <c r="E21" s="3">
-        <v>0.205400625</v>
+        <v>0.2054006250000002</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0796133258413591</v>
+        <v>0.05227621189010145</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0.00232562500000099</v>
+        <v>0.1518613008290119</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0.00559438671605305</v>
+        <v>0.02081013830985601</v>
       </c>
       <c r="L21" s="3">
-        <v>0.0167266666831045</v>
+        <v>0.05206092174549681</v>
       </c>
       <c r="M21" s="3">
-        <v>0.131433333317662</v>
+        <v>0.0816073902109784</v>
       </c>
       <c r="N21" s="3">
-        <v>0.66670882584298</v>
+        <v>0.06491500000000094</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="3"/>
@@ -2578,43 +2590,43 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
-        <v>0.120827720926648</v>
+        <v>0.07445481358104744</v>
       </c>
       <c r="D22" s="3">
-        <v>0.324700000000001</v>
+        <v>0.1737760463610494</v>
       </c>
       <c r="E22" s="3">
-        <v>0.205400625</v>
+        <v>0.2054006250000002</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0796133258413591</v>
+        <v>0.05227621189010145</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0.00232562500000099</v>
+        <v>0.1518613008290119</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0.00559438671605305</v>
+        <v>0.02081013830985601</v>
       </c>
       <c r="L22" s="3">
-        <v>0.0167266666831045</v>
+        <v>0.05206092174549681</v>
       </c>
       <c r="M22" s="3">
-        <v>0.131433333317662</v>
+        <v>0.0816073902109784</v>
       </c>
       <c r="N22" s="3">
-        <v>0.66670882584298</v>
+        <v>0.06491500000000094</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="3"/>
@@ -2677,12 +2689,12 @@
       <c r="BU22" s="4"/>
       <c r="BV22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="6">
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -2853,121 +2865,121 @@
       <c r="BU23" s="4"/>
       <c r="BV23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>0.00778736822521386</v>
+        <v>0.007814242885505251</v>
       </c>
       <c r="D24" s="3">
-        <v>0.00777135320243749</v>
+        <v>0.0078129000845375</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0077320992397496</v>
+        <v>0.007813760849876061</v>
       </c>
       <c r="F24" s="3">
-        <v>0.00765432322643233</v>
+        <v>0.007068891234548014</v>
       </c>
       <c r="G24" s="3">
-        <v>0.00750583192712728</v>
+        <v>0.006025447695195085</v>
       </c>
       <c r="H24" s="3">
-        <v>0.00721369611053734</v>
+        <v>0.003796680921357654</v>
       </c>
       <c r="I24" s="3">
-        <v>0.00662493207960213</v>
+        <v>0.000728048954742766</v>
       </c>
       <c r="J24" s="3">
-        <v>0.021114486308837</v>
+        <v>0.006249284820966983</v>
       </c>
       <c r="K24" s="3">
-        <v>0.0422634149708591</v>
+        <v>0.01055841239856603</v>
       </c>
       <c r="L24" s="3">
-        <v>0.0845913608157948</v>
+        <v>0.01928930938950213</v>
       </c>
       <c r="M24" s="3">
-        <v>0.169191391712549</v>
+        <v>0.04281933422866113</v>
       </c>
       <c r="N24" s="5">
-        <v>1e-15</v>
+        <v>0.0680741818802908</v>
       </c>
       <c r="O24" s="3">
-        <v>0.00779979957388521</v>
+        <v>0.007812894731428432</v>
       </c>
       <c r="P24" s="3">
-        <v>0.00781245573668099</v>
+        <v>0.00781264321797659</v>
       </c>
       <c r="Q24" s="3">
-        <v>0.00781246058137363</v>
+        <v>0.007926519369178209</v>
       </c>
       <c r="R24" s="3">
-        <v>0.00781246222465981</v>
+        <v>0.007542228980851773</v>
       </c>
       <c r="S24" s="3">
-        <v>0.00781243933143005</v>
+        <v>0.007067318069915229</v>
       </c>
       <c r="T24" s="3">
-        <v>0.00781246596014284</v>
+        <v>0.006372127156472507</v>
       </c>
       <c r="U24" s="3">
-        <v>0.0234373710541855</v>
+        <v>0.01997497801870352</v>
       </c>
       <c r="V24" s="3">
-        <v>0.0468748413373651</v>
+        <v>0.03861792803739816</v>
       </c>
       <c r="W24" s="3">
-        <v>0.0937495798761398</v>
+        <v>0.07580860316104387</v>
       </c>
       <c r="X24" s="3">
-        <v>0.187499851002195</v>
+        <v>0.02306254601586444</v>
       </c>
       <c r="Y24" s="3">
-        <v>0.374999118778443</v>
+        <v>0.03561835903317068</v>
       </c>
       <c r="Z24" s="5">
-        <v>8.88178419700125e-16</v>
+        <v>0.01559626880896325</v>
       </c>
       <c r="AA24" s="3">
-        <v>0.00780588461794984</v>
+        <v>0.007814041937262317</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.00781247242821736</v>
+        <v>0.008242544019563702</v>
       </c>
       <c r="AC24" s="3">
-        <v>0.00781246789329337</v>
+        <v>0.03313348313804232</v>
       </c>
       <c r="AD24" s="3">
-        <v>0.00781246384460798</v>
+        <v>0.008310300595593567</v>
       </c>
       <c r="AE24" s="3">
-        <v>0.00781243452330016</v>
+        <v>0.0078569847480221</v>
       </c>
       <c r="AF24" s="3">
-        <v>0.0234374146933982</v>
+        <v>0.1117633567060938</v>
       </c>
       <c r="AG24" s="3">
-        <v>0.0468748328866366</v>
+        <v>0.05137874333128778</v>
       </c>
       <c r="AH24" s="3">
-        <v>0.0937497509424576</v>
+        <v>0.1675290125922984</v>
       </c>
       <c r="AI24" s="3">
-        <v>0.187499564436464</v>
+        <v>0.1790011892992776</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.374999361056207</v>
+        <v>0.3036810330578592</v>
       </c>
       <c r="AK24" s="3">
-        <v>0.749998957732253</v>
+        <v>0.1030793839663708</v>
       </c>
       <c r="AL24" s="5">
-        <v>2.22044604925031e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="AM24" s="3">
-        <v>0.00780873299189277</v>
+        <v>0.008006015257037369</v>
       </c>
       <c r="AN24" s="4">
         <v>0</v>
@@ -3027,121 +3039,121 @@
       <c r="BU24" s="4"/>
       <c r="BV24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3">
-        <v>0.00778736822521386</v>
+        <v>0.007814242885505251</v>
       </c>
       <c r="D25" s="3">
-        <v>0.00777135320243749</v>
+        <v>0.0078129000845375</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0077320992397496</v>
+        <v>0.007813760849876061</v>
       </c>
       <c r="F25" s="3">
-        <v>0.00765432322643233</v>
+        <v>0.007068891234548014</v>
       </c>
       <c r="G25" s="3">
-        <v>0.00750583192712728</v>
+        <v>0.006025447695195085</v>
       </c>
       <c r="H25" s="3">
-        <v>0.00721369611053734</v>
+        <v>0.003796680921357654</v>
       </c>
       <c r="I25" s="3">
-        <v>0.00662493207960213</v>
+        <v>0.000728048954742766</v>
       </c>
       <c r="J25" s="3">
-        <v>0.021114486308837</v>
+        <v>0.006249284820966983</v>
       </c>
       <c r="K25" s="3">
-        <v>0.0422634149708591</v>
+        <v>0.01055841239856603</v>
       </c>
       <c r="L25" s="3">
-        <v>0.0845913608157948</v>
+        <v>0.01928930938950213</v>
       </c>
       <c r="M25" s="3">
-        <v>0.169191391712549</v>
+        <v>0.04281933422866113</v>
       </c>
       <c r="N25" s="5">
-        <v>1e-15</v>
+        <v>0.0680741818802908</v>
       </c>
       <c r="O25" s="3">
-        <v>0.00779979957388521</v>
+        <v>0.007812894731428432</v>
       </c>
       <c r="P25" s="3">
-        <v>0.00781245573668099</v>
+        <v>0.00781264321797659</v>
       </c>
       <c r="Q25" s="3">
-        <v>0.00781246058137363</v>
+        <v>0.007926519369178209</v>
       </c>
       <c r="R25" s="3">
-        <v>0.00781246222465981</v>
+        <v>0.007542228980851773</v>
       </c>
       <c r="S25" s="3">
-        <v>0.00781243933143005</v>
+        <v>0.007067318069915229</v>
       </c>
       <c r="T25" s="3">
-        <v>0.00781246596014284</v>
+        <v>0.006372127156472507</v>
       </c>
       <c r="U25" s="3">
-        <v>0.0234373710541855</v>
+        <v>0.01997497801870352</v>
       </c>
       <c r="V25" s="3">
-        <v>0.0468748413373651</v>
+        <v>0.03861792803739816</v>
       </c>
       <c r="W25" s="3">
-        <v>0.0937495798761398</v>
+        <v>0.07580860316104387</v>
       </c>
       <c r="X25" s="3">
-        <v>0.187499851002195</v>
+        <v>0.02306254601586444</v>
       </c>
       <c r="Y25" s="3">
-        <v>0.374999118778443</v>
+        <v>0.03561835903317068</v>
       </c>
       <c r="Z25" s="5">
-        <v>8.88178419700125e-16</v>
+        <v>0.01559626880896325</v>
       </c>
       <c r="AA25" s="3">
-        <v>0.00780588461794984</v>
+        <v>0.007814041937262317</v>
       </c>
       <c r="AB25" s="3">
-        <v>0.00781247242821736</v>
+        <v>0.008242544019563702</v>
       </c>
       <c r="AC25" s="3">
-        <v>0.00781246789329337</v>
+        <v>0.03313348313804232</v>
       </c>
       <c r="AD25" s="3">
-        <v>0.00781246384460798</v>
+        <v>0.008310300595593567</v>
       </c>
       <c r="AE25" s="3">
-        <v>0.00781243452330016</v>
+        <v>0.0078569847480221</v>
       </c>
       <c r="AF25" s="3">
-        <v>0.0234374146933982</v>
+        <v>0.1117633567060938</v>
       </c>
       <c r="AG25" s="3">
-        <v>0.0468748328866366</v>
+        <v>0.05137874333128778</v>
       </c>
       <c r="AH25" s="3">
-        <v>0.0937497509424576</v>
+        <v>0.1675290125922984</v>
       </c>
       <c r="AI25" s="3">
-        <v>0.187499564436464</v>
+        <v>0.1790011892992776</v>
       </c>
       <c r="AJ25" s="3">
-        <v>0.374999361056207</v>
+        <v>0.3036810330578592</v>
       </c>
       <c r="AK25" s="3">
-        <v>0.749998957732253</v>
+        <v>0.1030793839663708</v>
       </c>
       <c r="AL25" s="5">
-        <v>2.22044604925031e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="AM25" s="3">
-        <v>0.00780873299189277</v>
+        <v>0.008006015257037369</v>
       </c>
       <c r="AN25" s="4">
         <v>0</v>
@@ -3206,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -3428,190 +3440,190 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
-        <v>0.0106726930120406</v>
+        <v>0.007784717446579492</v>
       </c>
       <c r="D27" s="3">
-        <v>0.0106783632910607</v>
+        <v>0.007757326752887872</v>
       </c>
       <c r="E27" s="3">
-        <v>0.0105526246523788</v>
+        <v>0.007699048819449716</v>
       </c>
       <c r="F27" s="3">
-        <v>0.0109868756531947</v>
+        <v>0.00757648501596031</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0122261630482221</v>
+        <v>0.007312429038359047</v>
       </c>
       <c r="H27" s="3">
-        <v>0.0135073363030837</v>
+        <v>0.006847028239675756</v>
       </c>
       <c r="I27" s="3">
-        <v>0.0121586266730213</v>
+        <v>0.00570003091944904</v>
       </c>
       <c r="J27" s="3">
-        <v>0.0120497520148488</v>
+        <v>0.00360751258502745</v>
       </c>
       <c r="K27" s="3">
-        <v>0.012547272200051</v>
+        <v>0.0006703830109131559</v>
       </c>
       <c r="L27" s="3">
-        <v>0.0138334960132335</v>
+        <v>0.0006874776097329782</v>
       </c>
       <c r="M27" s="3">
-        <v>0.0301977800859192</v>
+        <v>0.003023997591212968</v>
       </c>
       <c r="N27" s="3">
-        <v>0.00487957093910162</v>
+        <v>0.01230141055536516</v>
       </c>
       <c r="O27" s="3">
-        <v>0.00563052876453151</v>
+        <v>0.007766189794042422</v>
       </c>
       <c r="P27" s="3">
-        <v>0.00214638051275306</v>
+        <v>0.007712663315720292</v>
       </c>
       <c r="Q27" s="3">
-        <v>0.00339687339491701</v>
+        <v>0.007614699791186785</v>
       </c>
       <c r="R27" s="3">
-        <v>0.0109861763607757</v>
+        <v>0.007396659113276804</v>
       </c>
       <c r="S27" s="3">
-        <v>0.0122164635695418</v>
+        <v>0.006911112229425642</v>
       </c>
       <c r="T27" s="3">
-        <v>0.0135054359842961</v>
+        <v>0.005986410622859539</v>
       </c>
       <c r="U27" s="3">
-        <v>0.0121487373161048</v>
+        <v>0.004129588337767665</v>
       </c>
       <c r="V27" s="3">
-        <v>0.0120450602062964</v>
+        <v>0.0008510139784367876</v>
       </c>
       <c r="W27" s="3">
-        <v>0.0218198041605706</v>
+        <v>0.0001829210589736618</v>
       </c>
       <c r="X27" s="3">
-        <v>0.0303712100312767</v>
+        <v>0.004218336806611322</v>
       </c>
       <c r="Y27" s="3">
-        <v>0.0669296559642314</v>
+        <v>0.008450067365115999</v>
       </c>
       <c r="Z27" s="3">
-        <v>0.0188408216890978</v>
+        <v>0.02140286135532476</v>
       </c>
       <c r="AA27" s="3">
-        <v>0.0106549770336443</v>
+        <v>0.007790814251408706</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.0106742418795331</v>
+        <v>0.00773845746083146</v>
       </c>
       <c r="AC27" s="3">
-        <v>0.0105373393672474</v>
+        <v>0.007406281773847168</v>
       </c>
       <c r="AD27" s="3">
-        <v>0.0109861054246729</v>
+        <v>0.006993605592842123</v>
       </c>
       <c r="AE27" s="3">
-        <v>0.012215872620175</v>
+        <v>0.006208216485755091</v>
       </c>
       <c r="AF27" s="3">
-        <v>0.0135027971062036</v>
+        <v>0.004299956741321553</v>
       </c>
       <c r="AG27" s="3">
-        <v>0.0121458543633403</v>
+        <v>0.000556989474078895</v>
       </c>
       <c r="AH27" s="3">
-        <v>0.0212032374677642</v>
+        <v>0.00107785023963114</v>
       </c>
       <c r="AI27" s="3">
-        <v>0.0381561546061062</v>
+        <v>0.003040369720468838</v>
       </c>
       <c r="AJ27" s="3">
-        <v>0.0606846487720289</v>
+        <v>0.008360321175133745</v>
       </c>
       <c r="AK27" s="3">
-        <v>0.134073433793039</v>
+        <v>0.01612463328676106</v>
       </c>
       <c r="AL27" s="3">
-        <v>0.0263051444637534</v>
+        <v>0.04150940627735955</v>
       </c>
       <c r="AM27" s="3">
-        <v>0.0482253967483399</v>
+        <v>0.007806400792986334</v>
       </c>
       <c r="AN27" s="3">
-        <v>0.129374657753658</v>
+        <v>0.007643744682779285</v>
       </c>
       <c r="AO27" s="3">
-        <v>0.270874445318083</v>
+        <v>0.007625945030095505</v>
       </c>
       <c r="AP27" s="3">
-        <v>0.0157469786167492</v>
+        <v>0.006780058539637146</v>
       </c>
       <c r="AQ27" s="3">
-        <v>0.0132221327269244</v>
+        <v>0.004711616888188663</v>
       </c>
       <c r="AR27" s="3">
-        <v>0.0842277372126993</v>
+        <v>0.006218982343024093</v>
       </c>
       <c r="AS27" s="3">
-        <v>0.0168813583916871</v>
+        <v>0.01033336171816579</v>
       </c>
       <c r="AT27" s="3">
-        <v>0.00323893502745731</v>
+        <v>0.01904662366091592</v>
       </c>
       <c r="AU27" s="3">
-        <v>0.0706280624900346</v>
+        <v>0.04859001642253746</v>
       </c>
       <c r="AV27" s="3">
-        <v>0.00517606106129808</v>
+        <v>0.02189455871323931</v>
       </c>
       <c r="AW27" s="3">
-        <v>0.106019489177354</v>
+        <v>0.02795168269407533</v>
       </c>
       <c r="AX27" s="3">
-        <v>0.176227919628912</v>
+        <v>0.04339992026429096</v>
       </c>
       <c r="AY27" s="3">
-        <v>0.0122525371319581</v>
+        <v>0.007809277532523362</v>
       </c>
       <c r="AZ27" s="3">
-        <v>0.10010155030552</v>
+        <v>0.3656660994371919</v>
       </c>
       <c r="BA27" s="3">
-        <v>0.205865940022597</v>
+        <v>0.1833110023366844</v>
       </c>
       <c r="BB27" s="3">
-        <v>0.0163459097754379</v>
+        <v>0.2496008857798011</v>
       </c>
       <c r="BC27" s="3">
-        <v>0.0191791921169732</v>
+        <v>0.3989752501491923</v>
       </c>
       <c r="BD27" s="3">
-        <v>0.110283138714923</v>
+        <v>0.2728529521557617</v>
       </c>
       <c r="BE27" s="3">
-        <v>0.170293415203865</v>
+        <v>0.3294475586280121</v>
       </c>
       <c r="BF27" s="3">
-        <v>0.0460845869606563</v>
+        <v>0.2829820381816939</v>
       </c>
       <c r="BG27" s="3">
-        <v>0.0163936749523245</v>
+        <v>0.1228247056413907</v>
       </c>
       <c r="BH27" s="3">
-        <v>0.250632071824735</v>
+        <v>0.3636718099428684</v>
       </c>
       <c r="BI27" s="3">
-        <v>0.242384635018836</v>
+        <v>0.6326826100840031</v>
       </c>
       <c r="BJ27" s="3">
-        <v>0.110978421484375</v>
+        <v>0.1109784214843745</v>
       </c>
       <c r="BK27" s="3">
-        <v>0.725937388064785</v>
+        <v>0.01502429293853336</v>
       </c>
       <c r="BL27" s="4">
         <v>0</v>
@@ -3650,190 +3662,190 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3">
-        <v>0.010672693012041</v>
+        <v>0.007784717446579492</v>
       </c>
       <c r="D28" s="3">
-        <v>0.010678363291061</v>
+        <v>0.007757326752887872</v>
       </c>
       <c r="E28" s="3">
-        <v>0.010552624652379</v>
+        <v>0.007699048819449716</v>
       </c>
       <c r="F28" s="3">
-        <v>0.0109868756531947</v>
+        <v>0.00757648501596031</v>
       </c>
       <c r="G28" s="3">
-        <v>0.0122261630482221</v>
+        <v>0.007312429038359047</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0135073363030837</v>
+        <v>0.006847028239675756</v>
       </c>
       <c r="I28" s="3">
-        <v>0.0121586266730213</v>
+        <v>0.00570003091944904</v>
       </c>
       <c r="J28" s="3">
-        <v>0.0120497520148488</v>
+        <v>0.00360751258502745</v>
       </c>
       <c r="K28" s="3">
-        <v>0.012547272200051</v>
+        <v>0.0006703830109131559</v>
       </c>
       <c r="L28" s="3">
-        <v>0.0138334960132335</v>
+        <v>0.0006874776097329782</v>
       </c>
       <c r="M28" s="3">
-        <v>0.0301977800859192</v>
+        <v>0.003023997591212968</v>
       </c>
       <c r="N28" s="3">
-        <v>0.00487957093910162</v>
+        <v>0.01230141055536516</v>
       </c>
       <c r="O28" s="3">
-        <v>0.00563052876453151</v>
+        <v>0.007766189794042422</v>
       </c>
       <c r="P28" s="3">
-        <v>0.00214638051275306</v>
+        <v>0.007712663315720292</v>
       </c>
       <c r="Q28" s="3">
-        <v>0.00339687339491701</v>
+        <v>0.007614699791186785</v>
       </c>
       <c r="R28" s="3">
-        <v>0.0109861763607757</v>
+        <v>0.007396659113276804</v>
       </c>
       <c r="S28" s="3">
-        <v>0.0122164635695418</v>
+        <v>0.006911112229425642</v>
       </c>
       <c r="T28" s="3">
-        <v>0.0135054359842961</v>
+        <v>0.005986410622859539</v>
       </c>
       <c r="U28" s="3">
-        <v>0.0121487373161048</v>
+        <v>0.004129588337767665</v>
       </c>
       <c r="V28" s="3">
-        <v>0.0120450602062964</v>
+        <v>0.0008510139784367876</v>
       </c>
       <c r="W28" s="3">
-        <v>0.0218198041605706</v>
+        <v>0.0001829210589736618</v>
       </c>
       <c r="X28" s="3">
-        <v>0.0303712100312767</v>
+        <v>0.004218336806611322</v>
       </c>
       <c r="Y28" s="3">
-        <v>0.0669296559642314</v>
+        <v>0.008450067365115999</v>
       </c>
       <c r="Z28" s="3">
-        <v>0.0188408216890978</v>
+        <v>0.02140286135532476</v>
       </c>
       <c r="AA28" s="3">
-        <v>0.0106549770336443</v>
+        <v>0.007790814251408706</v>
       </c>
       <c r="AB28" s="3">
-        <v>0.0106742418795331</v>
+        <v>0.00773845746083146</v>
       </c>
       <c r="AC28" s="3">
-        <v>0.0105373393672474</v>
+        <v>0.007406281773847168</v>
       </c>
       <c r="AD28" s="3">
-        <v>0.0109861054246729</v>
+        <v>0.006993605592842123</v>
       </c>
       <c r="AE28" s="3">
-        <v>0.012215872620175</v>
+        <v>0.006208216485755091</v>
       </c>
       <c r="AF28" s="3">
-        <v>0.0135027971062036</v>
+        <v>0.004299956741321553</v>
       </c>
       <c r="AG28" s="3">
-        <v>0.0121458543633403</v>
+        <v>0.000556989474078895</v>
       </c>
       <c r="AH28" s="3">
-        <v>0.0212032374677642</v>
+        <v>0.00107785023963114</v>
       </c>
       <c r="AI28" s="3">
-        <v>0.0381561546061062</v>
+        <v>0.003040369720468838</v>
       </c>
       <c r="AJ28" s="3">
-        <v>0.0606846487720289</v>
+        <v>0.008360321175133745</v>
       </c>
       <c r="AK28" s="3">
-        <v>0.134073433793039</v>
+        <v>0.01612463328676106</v>
       </c>
       <c r="AL28" s="3">
-        <v>0.0263051444637534</v>
+        <v>0.04150940627735955</v>
       </c>
       <c r="AM28" s="3">
-        <v>0.0482253967483399</v>
+        <v>0.007806400792986334</v>
       </c>
       <c r="AN28" s="3">
-        <v>0.129374657753658</v>
+        <v>0.007643744682779285</v>
       </c>
       <c r="AO28" s="3">
-        <v>0.270874445318083</v>
+        <v>0.007625945030095505</v>
       </c>
       <c r="AP28" s="3">
-        <v>0.0157469786167492</v>
+        <v>0.006780058539637146</v>
       </c>
       <c r="AQ28" s="3">
-        <v>0.0132221327269244</v>
+        <v>0.004711616888188663</v>
       </c>
       <c r="AR28" s="3">
-        <v>0.0842277372126993</v>
+        <v>0.006218982343024093</v>
       </c>
       <c r="AS28" s="3">
-        <v>0.0168813583916871</v>
+        <v>0.01033336171816579</v>
       </c>
       <c r="AT28" s="3">
-        <v>0.00323893502745731</v>
+        <v>0.01904662366091592</v>
       </c>
       <c r="AU28" s="3">
-        <v>0.0706280624900346</v>
+        <v>0.04859001642253746</v>
       </c>
       <c r="AV28" s="3">
-        <v>0.00517606106129808</v>
+        <v>0.02189455871323931</v>
       </c>
       <c r="AW28" s="3">
-        <v>0.106019489177354</v>
+        <v>0.02795168269407533</v>
       </c>
       <c r="AX28" s="3">
-        <v>0.176227919628912</v>
+        <v>0.04339992026429096</v>
       </c>
       <c r="AY28" s="3">
-        <v>0.0122525371319581</v>
+        <v>0.007809277532523362</v>
       </c>
       <c r="AZ28" s="3">
-        <v>0.10010155030552</v>
+        <v>0.3656660994371919</v>
       </c>
       <c r="BA28" s="3">
-        <v>0.205865940022597</v>
+        <v>0.1833110023366844</v>
       </c>
       <c r="BB28" s="3">
-        <v>0.0163459097754379</v>
+        <v>0.2496008857798011</v>
       </c>
       <c r="BC28" s="3">
-        <v>0.0191791921169732</v>
+        <v>0.3989752501491923</v>
       </c>
       <c r="BD28" s="3">
-        <v>0.110283138714923</v>
+        <v>0.2728529521557617</v>
       </c>
       <c r="BE28" s="3">
-        <v>0.170293415203865</v>
+        <v>0.3294475586280121</v>
       </c>
       <c r="BF28" s="3">
-        <v>0.0460845869606563</v>
+        <v>0.2829820381816939</v>
       </c>
       <c r="BG28" s="3">
-        <v>0.0163936749523245</v>
+        <v>0.1228247056413907</v>
       </c>
       <c r="BH28" s="3">
-        <v>0.250632071824735</v>
+        <v>0.3636718099428684</v>
       </c>
       <c r="BI28" s="3">
-        <v>0.242384635018836</v>
+        <v>0.6326826100840031</v>
       </c>
       <c r="BJ28" s="3">
-        <v>0.110978421484375</v>
+        <v>0.1109784214843745</v>
       </c>
       <c r="BK28" s="3">
-        <v>0.725937388064785</v>
+        <v>0.01502429293853336</v>
       </c>
       <c r="BL28" s="4">
         <v>0</v>
@@ -3874,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -4002,79 +4014,79 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>0.115630593441043</v>
+        <v>0.05140304112808003</v>
       </c>
       <c r="E30" s="3">
-        <v>0.687913310363123</v>
+        <v>0.003861424962792348</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0343362545802527</v>
+        <v>0.1163246386718747</v>
       </c>
       <c r="G30" s="3">
-        <v>0.69551231317176</v>
+        <v>0.05285305480425445</v>
       </c>
       <c r="H30" s="3">
-        <v>0.092920559593943</v>
+        <v>0.1298884813346822</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0571392422399045</v>
+        <v>0.05030079069865906</v>
       </c>
       <c r="J30" s="3">
-        <v>0.0457602144756198</v>
+        <v>0.1161543945312498</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>0.0370233300510719</v>
+        <v>0.1163246386718747</v>
       </c>
       <c r="M30" s="3">
-        <v>0.413531502448512</v>
+        <v>0.0410870486261633</v>
       </c>
       <c r="N30" s="3">
-        <v>0.051473536090724</v>
+        <v>0.07175865234374995</v>
       </c>
       <c r="O30" s="3">
-        <v>0.727150895876301</v>
+        <v>0.06810353551706866</v>
       </c>
       <c r="P30" s="3">
-        <v>0.060249063798855</v>
+        <v>0.1161543945312498</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.653829286733246</v>
+        <v>0.03916363020393543</v>
       </c>
       <c r="R30" s="3">
-        <v>0.0255489739889456</v>
+        <v>0.4827920487887687</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <v>0.0401105573555297</v>
+        <v>0.07175865234374995</v>
       </c>
       <c r="U30" s="3">
-        <v>0.0503079748197421</v>
+        <v>0.09586731470995963</v>
       </c>
       <c r="V30" s="3">
-        <v>0.116164990521135</v>
+        <v>0.02363278588066875</v>
       </c>
       <c r="W30" s="3">
-        <v>0.468395193471029</v>
+        <v>0.05036866049458488</v>
       </c>
       <c r="X30" s="3">
-        <v>0.0227300316973408</v>
+        <v>0.07753649414062497</v>
       </c>
       <c r="Y30" s="3">
-        <v>0.461844921274089</v>
+        <v>0.03688532211444939</v>
       </c>
       <c r="Z30" s="3">
-        <v>0.0928468686693997</v>
+        <v>0.1412756153829602</v>
       </c>
       <c r="AA30" s="4">
         <v>0</v>
@@ -4130,79 +4142,79 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>0.115630593441043</v>
+        <v>0.05140304112808003</v>
       </c>
       <c r="E31" s="3">
-        <v>0.687913310363123</v>
+        <v>0.003861424962792348</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0343362545802527</v>
+        <v>0.1163246386718747</v>
       </c>
       <c r="G31" s="3">
-        <v>0.69551231317176</v>
+        <v>0.05285305480425445</v>
       </c>
       <c r="H31" s="3">
-        <v>0.092920559593943</v>
+        <v>0.1298884813346822</v>
       </c>
       <c r="I31" s="3">
-        <v>0.0571392422399045</v>
+        <v>0.05030079069865906</v>
       </c>
       <c r="J31" s="3">
-        <v>0.0457602144756198</v>
+        <v>0.1161543945312498</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>0.0370233300510719</v>
+        <v>0.1163246386718747</v>
       </c>
       <c r="M31" s="3">
-        <v>0.413531502448512</v>
+        <v>0.0410870486261633</v>
       </c>
       <c r="N31" s="3">
-        <v>0.051473536090724</v>
+        <v>0.07175865234374995</v>
       </c>
       <c r="O31" s="3">
-        <v>0.727150895876301</v>
+        <v>0.06810353551706866</v>
       </c>
       <c r="P31" s="3">
-        <v>0.060249063798855</v>
+        <v>0.1161543945312498</v>
       </c>
       <c r="Q31" s="3">
-        <v>0.653829286733246</v>
+        <v>0.03916363020393543</v>
       </c>
       <c r="R31" s="3">
-        <v>0.0255489739889456</v>
+        <v>0.4827920487887687</v>
       </c>
       <c r="S31" s="4">
         <v>0</v>
       </c>
       <c r="T31" s="3">
-        <v>0.0401105573555297</v>
+        <v>0.07175865234374995</v>
       </c>
       <c r="U31" s="3">
-        <v>0.0503079748197421</v>
+        <v>0.09586731470995963</v>
       </c>
       <c r="V31" s="3">
-        <v>0.116164990521135</v>
+        <v>0.02363278588066875</v>
       </c>
       <c r="W31" s="3">
-        <v>0.468395193471029</v>
+        <v>0.05036866049458488</v>
       </c>
       <c r="X31" s="3">
-        <v>0.0227300316973408</v>
+        <v>0.07753649414062497</v>
       </c>
       <c r="Y31" s="3">
-        <v>0.461844921274089</v>
+        <v>0.03688532211444939</v>
       </c>
       <c r="Z31" s="3">
-        <v>0.0928468686693997</v>
+        <v>0.1412756153829602</v>
       </c>
       <c r="AA31" s="4">
         <v>0</v>
@@ -4260,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -4388,82 +4400,82 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
-        <v>0.0721353183266224</v>
+        <v>0.01480721914092292</v>
       </c>
       <c r="D33" s="3">
-        <v>0.155745816199454</v>
+        <v>0.03374624191198144</v>
       </c>
       <c r="E33" s="3">
-        <v>0.54096065399484</v>
+        <v>0.06790585242226754</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0094842950629419</v>
+        <v>0.1238070312499996</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0114501778665259</v>
+        <v>0.0444018846449179</v>
       </c>
       <c r="I33" s="3">
-        <v>0.0700950361434021</v>
+        <v>0.07800071213645238</v>
       </c>
       <c r="J33" s="3">
-        <v>0.00521328124999964</v>
+        <v>0.1488070312499996</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0.0552653051764449</v>
+        <v>0.1238070312499996</v>
       </c>
       <c r="M33" s="3">
-        <v>0.30805418755465</v>
+        <v>0.00514119205064284</v>
       </c>
       <c r="N33" s="3">
-        <v>0.0307429054025386</v>
+        <v>0.1041107910156249</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0.0205170079042825</v>
+        <v>0.1488070312499995</v>
       </c>
       <c r="Q33" s="3">
-        <v>0.501606146847356</v>
+        <v>0.06822596955014029</v>
       </c>
       <c r="R33" s="3">
-        <v>0.0707818775861582</v>
+        <v>0.05819234130859363</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0.0301716260699166</v>
+        <v>0.1041107910156249</v>
       </c>
       <c r="U33" s="3">
-        <v>0.0767247192968269</v>
+        <v>0.1033829016949327</v>
       </c>
       <c r="V33" s="3">
-        <v>0.0982525891409605</v>
+        <v>0.01945386700350205</v>
       </c>
       <c r="W33" s="3">
-        <v>0.32336396689401</v>
+        <v>0.03276271738253295</v>
       </c>
       <c r="X33" s="3">
-        <v>0.0246459714536121</v>
+        <v>0.05819234130859363</v>
       </c>
       <c r="Y33" s="3">
-        <v>0.3183799034088</v>
+        <v>0.01234143591107525</v>
       </c>
       <c r="Z33" s="3">
-        <v>0.0297690991843054</v>
+        <v>0.04734568040612866</v>
       </c>
       <c r="AA33" s="3">
-        <v>0.117229618525044</v>
+        <v>0.007162234842556292</v>
       </c>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -4516,82 +4528,82 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3">
-        <v>0.0721353183266224</v>
+        <v>0.01480721914092292</v>
       </c>
       <c r="D34" s="3">
-        <v>0.155745816199454</v>
+        <v>0.03374624191198144</v>
       </c>
       <c r="E34" s="3">
-        <v>0.54096065399484</v>
+        <v>0.06790585242226754</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0094842950629419</v>
+        <v>0.1238070312499996</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0114501778665259</v>
+        <v>0.0444018846449179</v>
       </c>
       <c r="I34" s="3">
-        <v>0.0700950361434021</v>
+        <v>0.07800071213645238</v>
       </c>
       <c r="J34" s="3">
-        <v>0.00521328124999964</v>
+        <v>0.1488070312499996</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>0.0552653051764449</v>
+        <v>0.1238070312499996</v>
       </c>
       <c r="M34" s="3">
-        <v>0.30805418755465</v>
+        <v>0.00514119205064284</v>
       </c>
       <c r="N34" s="3">
-        <v>0.0307429054025386</v>
+        <v>0.1041107910156249</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>0.0205170079042825</v>
+        <v>0.1488070312499995</v>
       </c>
       <c r="Q34" s="3">
-        <v>0.501606146847356</v>
+        <v>0.06822596955014029</v>
       </c>
       <c r="R34" s="3">
-        <v>0.0707818775861582</v>
+        <v>0.05819234130859363</v>
       </c>
       <c r="S34" s="4">
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <v>0.0301716260699166</v>
+        <v>0.1041107910156249</v>
       </c>
       <c r="U34" s="3">
-        <v>0.0767247192968269</v>
+        <v>0.1033829016949327</v>
       </c>
       <c r="V34" s="3">
-        <v>0.0982525891409605</v>
+        <v>0.01945386700350205</v>
       </c>
       <c r="W34" s="3">
-        <v>0.32336396689401</v>
+        <v>0.03276271738253295</v>
       </c>
       <c r="X34" s="3">
-        <v>0.0246459714536121</v>
+        <v>0.05819234130859363</v>
       </c>
       <c r="Y34" s="3">
-        <v>0.3183799034088</v>
+        <v>0.01234143591107525</v>
       </c>
       <c r="Z34" s="3">
-        <v>0.0297690991843054</v>
+        <v>0.04734568040612866</v>
       </c>
       <c r="AA34" s="3">
-        <v>0.117229618525044</v>
+        <v>0.007162234842556292</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -4646,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -4822,154 +4834,154 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>0.00359485224290956</v>
+        <v>0.01058209635852569</v>
       </c>
       <c r="D36" s="3">
-        <v>0.0029417145184547</v>
+        <v>0.1152106273997265</v>
       </c>
       <c r="E36" s="3">
-        <v>0.16007984222828</v>
+        <v>0.06310564572862032</v>
       </c>
       <c r="F36" s="3">
-        <v>0.365275918359261</v>
+        <v>0.1062038003350843</v>
       </c>
       <c r="G36" s="3">
-        <v>0.985650842683843</v>
+        <v>0.1492714414123209</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0994538133311657</v>
+        <v>0.4005665028124989</v>
       </c>
       <c r="I36" s="3">
-        <v>0.989305018885027</v>
+        <v>0.1438365469254093</v>
       </c>
       <c r="J36" s="3">
-        <v>0.0021951136549746</v>
+        <v>0.004454776714514552</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>0.0859747723285211</v>
+        <v>0.1730371755859667</v>
       </c>
       <c r="M36" s="3">
-        <v>0.265578907502146</v>
+        <v>0.3319814582608678</v>
       </c>
       <c r="N36" s="3">
-        <v>0.0978349305192225</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>0.098368058131228</v>
+        <v>0.4005665027976266</v>
       </c>
       <c r="Q36" s="3">
-        <v>0.0188321050466693</v>
+        <v>0.003409858899230955</v>
       </c>
       <c r="R36" s="3">
-        <v>0.0309359250034747</v>
+        <v>0.1118672828232276</v>
       </c>
       <c r="S36" s="3">
-        <v>0.0587725987667276</v>
+        <v>0.06205303786736738</v>
       </c>
       <c r="T36" s="3">
-        <v>0.0906710000144352</v>
+        <v>0.1030967476608321</v>
       </c>
       <c r="U36" s="3">
-        <v>0.910569164249383</v>
+        <v>0.2479496778638932</v>
       </c>
       <c r="V36" s="3">
-        <v>0.100561847123905</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="W36" s="3">
-        <v>0.968723509424204</v>
+        <v>0.2308872492349611</v>
       </c>
       <c r="X36" s="3">
-        <v>0.0240588333343633</v>
+        <v>0.01343862883925495</v>
       </c>
       <c r="Y36" s="3">
-        <v>0.0259646446915012</v>
+        <v>0.02394197507277973</v>
       </c>
       <c r="Z36" s="3">
-        <v>0.0600389730573931</v>
+        <v>0.0333551303979992</v>
       </c>
       <c r="AA36" s="3">
-        <v>0.127669473177243</v>
+        <v>0.07725885005406685</v>
       </c>
       <c r="AB36" s="3">
-        <v>0.30033218205902</v>
+        <v>0.1694381348651898</v>
       </c>
       <c r="AC36" s="3">
-        <v>0.264495818445756</v>
+        <v>0.3601046928168204</v>
       </c>
       <c r="AD36" s="3">
-        <v>0.115789581248232</v>
+        <v>0.1201392077169369</v>
       </c>
       <c r="AE36" s="3">
-        <v>0.00507974403464861</v>
+        <v>0.008073479156467278</v>
       </c>
       <c r="AF36" s="3">
-        <v>0.00628799823495263</v>
+        <v>0.04667740419044741</v>
       </c>
       <c r="AG36" s="3">
-        <v>0.0578353208510447</v>
+        <v>0.0273600064779923</v>
       </c>
       <c r="AH36" s="3">
-        <v>0.135250450646553</v>
+        <v>0.03802262298576531</v>
       </c>
       <c r="AI36" s="3">
-        <v>0.367865348951461</v>
+        <v>0.07081487424055344</v>
       </c>
       <c r="AJ36" s="3">
-        <v>0.039648686840559</v>
+        <v>0.15994871625</v>
       </c>
       <c r="AK36" s="3">
-        <v>0.261528444805415</v>
+        <v>0.08456297436450033</v>
       </c>
       <c r="AL36" s="3">
-        <v>0.00382928486570843</v>
+        <v>0.005054589467081372</v>
       </c>
       <c r="AM36" s="4">
         <v>0</v>
       </c>
       <c r="AN36" s="3">
-        <v>0.0350026072229979</v>
+        <v>0.08265749972533898</v>
       </c>
       <c r="AO36" s="3">
-        <v>0.106804112208358</v>
+        <v>0.1068566133298632</v>
       </c>
       <c r="AP36" s="3">
-        <v>0.0362696731163679</v>
+        <v>0.16011744484375</v>
       </c>
       <c r="AQ36" s="4">
         <v>0</v>
       </c>
       <c r="AR36" s="3">
-        <v>0.0396273223358345</v>
+        <v>0.1600517048437445</v>
       </c>
       <c r="AS36" s="3">
-        <v>0.00805992794631005</v>
+        <v>0.006757856009365182</v>
       </c>
       <c r="AT36" s="3">
-        <v>0.0212477571971713</v>
+        <v>0.0487252192296479</v>
       </c>
       <c r="AU36" s="3">
-        <v>0.0291877613941351</v>
+        <v>0.03266210573051676</v>
       </c>
       <c r="AV36" s="3">
-        <v>0.0442174348857081</v>
+        <v>0.05004527501610645</v>
       </c>
       <c r="AW36" s="3">
-        <v>0.392733407690605</v>
+        <v>0.0545636722686289</v>
       </c>
       <c r="AX36" s="3">
-        <v>0.0404415153706651</v>
+        <v>0.1602204334374999</v>
       </c>
       <c r="AY36" s="3">
-        <v>0.3742722509977</v>
+        <v>0.06238230826776059</v>
       </c>
       <c r="AZ36" s="3"/>
       <c r="BA36" s="3"/>
@@ -4998,154 +5010,154 @@
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="12"/>
       <c r="B37" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>0.00359485224291</v>
+        <v>0.01058209635852569</v>
       </c>
       <c r="D37" s="3">
-        <v>0.002941714518455</v>
+        <v>0.1152106273997265</v>
       </c>
       <c r="E37" s="3">
-        <v>0.16007984222828</v>
+        <v>0.06310564572862032</v>
       </c>
       <c r="F37" s="3">
-        <v>0.365275918359261</v>
+        <v>0.1062038003350843</v>
       </c>
       <c r="G37" s="3">
-        <v>0.985650842683843</v>
+        <v>0.1492714414123209</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0994538133311657</v>
+        <v>0.4005665028124989</v>
       </c>
       <c r="I37" s="3">
-        <v>0.989305018885027</v>
+        <v>0.1438365469254093</v>
       </c>
       <c r="J37" s="3">
-        <v>0.0021951136549746</v>
+        <v>0.004454776714514552</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>0.0859747723285211</v>
+        <v>0.1730371755859667</v>
       </c>
       <c r="M37" s="3">
-        <v>0.265578907502146</v>
+        <v>0.3319814582608678</v>
       </c>
       <c r="N37" s="3">
-        <v>0.0978349305192225</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="O37" s="4">
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>0.098368058131228</v>
+        <v>0.4005665027976266</v>
       </c>
       <c r="Q37" s="3">
-        <v>0.0188321050466693</v>
+        <v>0.003409858899230955</v>
       </c>
       <c r="R37" s="3">
-        <v>0.0309359250034747</v>
+        <v>0.1118672828232276</v>
       </c>
       <c r="S37" s="3">
-        <v>0.0587725987667276</v>
+        <v>0.06205303786736738</v>
       </c>
       <c r="T37" s="3">
-        <v>0.0906710000144352</v>
+        <v>0.1030967476608321</v>
       </c>
       <c r="U37" s="3">
-        <v>0.910569164249383</v>
+        <v>0.2479496778638932</v>
       </c>
       <c r="V37" s="3">
-        <v>0.100561847123905</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="W37" s="3">
-        <v>0.968723509424204</v>
+        <v>0.2308872492349611</v>
       </c>
       <c r="X37" s="3">
-        <v>0.0240588333343633</v>
+        <v>0.01343862883925495</v>
       </c>
       <c r="Y37" s="3">
-        <v>0.0259646446915012</v>
+        <v>0.02394197507277973</v>
       </c>
       <c r="Z37" s="3">
-        <v>0.0600389730573931</v>
+        <v>0.0333551303979992</v>
       </c>
       <c r="AA37" s="3">
-        <v>0.127669473177243</v>
+        <v>0.07725885005406685</v>
       </c>
       <c r="AB37" s="3">
-        <v>0.30033218205902</v>
+        <v>0.1694381348651898</v>
       </c>
       <c r="AC37" s="3">
-        <v>0.264495818445756</v>
+        <v>0.3601046928168204</v>
       </c>
       <c r="AD37" s="3">
-        <v>0.115789581248232</v>
+        <v>0.1201392077169369</v>
       </c>
       <c r="AE37" s="3">
-        <v>0.00507974403464861</v>
+        <v>0.008073479156467278</v>
       </c>
       <c r="AF37" s="3">
-        <v>0.00628799823495263</v>
+        <v>0.04667740419044741</v>
       </c>
       <c r="AG37" s="3">
-        <v>0.0578353208510447</v>
+        <v>0.0273600064779923</v>
       </c>
       <c r="AH37" s="3">
-        <v>0.135250450646553</v>
+        <v>0.03802262298576531</v>
       </c>
       <c r="AI37" s="3">
-        <v>0.367865348951461</v>
+        <v>0.07081487424055344</v>
       </c>
       <c r="AJ37" s="3">
-        <v>0.039648686840559</v>
+        <v>0.15994871625</v>
       </c>
       <c r="AK37" s="3">
-        <v>0.261528444805415</v>
+        <v>0.08456297436450033</v>
       </c>
       <c r="AL37" s="3">
-        <v>0.00382928486570843</v>
+        <v>0.005054589467081372</v>
       </c>
       <c r="AM37" s="4">
         <v>0</v>
       </c>
       <c r="AN37" s="3">
-        <v>0.0350026072229979</v>
+        <v>0.08265749972533898</v>
       </c>
       <c r="AO37" s="3">
-        <v>0.106804112208358</v>
+        <v>0.1068566133298632</v>
       </c>
       <c r="AP37" s="3">
-        <v>0.0362696731163679</v>
+        <v>0.16011744484375</v>
       </c>
       <c r="AQ37" s="4">
         <v>0</v>
       </c>
       <c r="AR37" s="3">
-        <v>0.0396273223358345</v>
+        <v>0.1600517048437445</v>
       </c>
       <c r="AS37" s="3">
-        <v>0.00805992794631005</v>
+        <v>0.006757856009365182</v>
       </c>
       <c r="AT37" s="3">
-        <v>0.0212477571971713</v>
+        <v>0.0487252192296479</v>
       </c>
       <c r="AU37" s="3">
-        <v>0.0291877613941351</v>
+        <v>0.03266210573051676</v>
       </c>
       <c r="AV37" s="3">
-        <v>0.0442174348857081</v>
+        <v>0.05004527501610645</v>
       </c>
       <c r="AW37" s="3">
-        <v>0.392733407690605</v>
+        <v>0.0545636722686289</v>
       </c>
       <c r="AX37" s="3">
-        <v>0.0404415153706651</v>
+        <v>0.1602204334374999</v>
       </c>
       <c r="AY37" s="3">
-        <v>0.3742722509977</v>
+        <v>0.06238230826776059</v>
       </c>
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
@@ -5176,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -5352,154 +5364,154 @@
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3">
-        <v>0.00188072165928943</v>
+        <v>0.00429372299625197</v>
       </c>
       <c r="D39" s="3">
-        <v>0.00275855861707996</v>
+        <v>0.1243806860930832</v>
       </c>
       <c r="E39" s="3">
-        <v>0.175172515021239</v>
+        <v>0.06643838104974187</v>
       </c>
       <c r="F39" s="3">
-        <v>0.365272172468516</v>
+        <v>0.1018512013258762</v>
       </c>
       <c r="G39" s="3">
-        <v>0.985518043143022</v>
+        <v>0.2006226742173048</v>
       </c>
       <c r="H39" s="3">
-        <v>0.0993990726940576</v>
+        <v>0.4005665028124989</v>
       </c>
       <c r="I39" s="3">
-        <v>0.989542933633874</v>
+        <v>0.250834259272123</v>
       </c>
       <c r="J39" s="3">
-        <v>0.00250282428171932</v>
+        <v>0.004560008583767594</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>0.0859901843544563</v>
+        <v>0.1228448543769206</v>
       </c>
       <c r="M39" s="3">
-        <v>0.26557494967081</v>
+        <v>0.2538297749355442</v>
       </c>
       <c r="N39" s="3">
-        <v>0.0978431259035752</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
       </c>
       <c r="P39" s="3">
-        <v>0.0983647530808842</v>
+        <v>0.4005665028124163</v>
       </c>
       <c r="Q39" s="3">
-        <v>0.0170095650024388</v>
+        <v>0.001686709795925334</v>
       </c>
       <c r="R39" s="3">
-        <v>0.0311289276584616</v>
+        <v>0.1126707299768249</v>
       </c>
       <c r="S39" s="3">
-        <v>0.058774490241265</v>
+        <v>0.04933448416505359</v>
       </c>
       <c r="T39" s="3">
-        <v>0.090688921115948</v>
+        <v>0.1244759724870448</v>
       </c>
       <c r="U39" s="3">
-        <v>0.910548834902968</v>
+        <v>0.2578225590994618</v>
       </c>
       <c r="V39" s="3">
-        <v>0.100493960202881</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="W39" s="3">
-        <v>0.96986811824016</v>
+        <v>0.01003961777288832</v>
       </c>
       <c r="X39" s="3">
-        <v>0.0252933729867449</v>
+        <v>0.01628302655988689</v>
       </c>
       <c r="Y39" s="3">
-        <v>0.0259641407151844</v>
+        <v>0.02456062557277738</v>
       </c>
       <c r="Z39" s="3">
-        <v>0.0602229836458442</v>
+        <v>0.04325419771236561</v>
       </c>
       <c r="AA39" s="3">
-        <v>0.128066239280926</v>
+        <v>0.0836957590470987</v>
       </c>
       <c r="AB39" s="3">
-        <v>0.300240837671941</v>
+        <v>0.155559060783905</v>
       </c>
       <c r="AC39" s="3">
-        <v>0.264524007162751</v>
+        <v>0.2845541160667006</v>
       </c>
       <c r="AD39" s="3">
-        <v>0.115769454689711</v>
+        <v>0.1217868471845096</v>
       </c>
       <c r="AE39" s="3">
-        <v>0.00569568468707826</v>
+        <v>0.006051270682463805</v>
       </c>
       <c r="AF39" s="3">
-        <v>0.00626559489538469</v>
+        <v>0.0542601430932198</v>
       </c>
       <c r="AG39" s="3">
-        <v>0.0578496272070145</v>
+        <v>0.02542465507188807</v>
       </c>
       <c r="AH39" s="3">
-        <v>0.135320296852872</v>
+        <v>0.0492275712838357</v>
       </c>
       <c r="AI39" s="3">
-        <v>0.367646252203045</v>
+        <v>0.08400239440383761</v>
       </c>
       <c r="AJ39" s="3">
-        <v>0.0395173553113471</v>
+        <v>0.15994871625</v>
       </c>
       <c r="AK39" s="3">
-        <v>0.261462156764673</v>
+        <v>0.09727112486447953</v>
       </c>
       <c r="AL39" s="3">
-        <v>0.00415531201277974</v>
+        <v>0.005174734742797393</v>
       </c>
       <c r="AM39" s="4">
         <v>0</v>
       </c>
       <c r="AN39" s="3">
-        <v>0.0349978374098548</v>
+        <v>0.08029293314030284</v>
       </c>
       <c r="AO39" s="3">
-        <v>0.106733394970188</v>
+        <v>0.1252524800792879</v>
       </c>
       <c r="AP39" s="3">
-        <v>0.0364791832400827</v>
+        <v>0.16011744484375</v>
       </c>
       <c r="AQ39" s="4">
         <v>0</v>
       </c>
       <c r="AR39" s="3">
-        <v>0.039603992754638</v>
+        <v>0.1600517048437494</v>
       </c>
       <c r="AS39" s="3">
-        <v>0.00868806633360319</v>
+        <v>0.005314803811685587</v>
       </c>
       <c r="AT39" s="3">
-        <v>0.0226995147493118</v>
+        <v>0.04790798124138584</v>
       </c>
       <c r="AU39" s="3">
-        <v>0.0291885179165175</v>
+        <v>0.02990711354008257</v>
       </c>
       <c r="AV39" s="3">
-        <v>0.0442626042635732</v>
+        <v>0.04665126158744137</v>
       </c>
       <c r="AW39" s="3">
-        <v>0.392739595390781</v>
+        <v>0.06839171005050726</v>
       </c>
       <c r="AX39" s="3">
-        <v>0.0404677095300405</v>
+        <v>0.1602204334374999</v>
       </c>
       <c r="AY39" s="3">
-        <v>0.374309042425473</v>
+        <v>0.09691561177208496</v>
       </c>
       <c r="AZ39" s="3"/>
       <c r="BA39" s="3"/>
@@ -5528,154 +5540,154 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
-        <v>0.00188072165928943</v>
+        <v>0.00429372299625197</v>
       </c>
       <c r="D40" s="3">
-        <v>0.00275855861707996</v>
+        <v>0.1243806860930832</v>
       </c>
       <c r="E40" s="3">
-        <v>0.175172515021239</v>
+        <v>0.06643838104974187</v>
       </c>
       <c r="F40" s="3">
-        <v>0.365272172468516</v>
+        <v>0.1018512013258762</v>
       </c>
       <c r="G40" s="3">
-        <v>0.985518043143022</v>
+        <v>0.2006226742173048</v>
       </c>
       <c r="H40" s="3">
-        <v>0.0993990726940576</v>
+        <v>0.4005665028124989</v>
       </c>
       <c r="I40" s="3">
-        <v>0.989542933633874</v>
+        <v>0.250834259272123</v>
       </c>
       <c r="J40" s="3">
-        <v>0.00250282428171932</v>
+        <v>0.004560008583767594</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>0.0859901843544563</v>
+        <v>0.1228448543769206</v>
       </c>
       <c r="M40" s="3">
-        <v>0.26557494967081</v>
+        <v>0.2538297749355442</v>
       </c>
       <c r="N40" s="3">
-        <v>0.0978431259035752</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="O40" s="4">
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>0.0983647530808842</v>
+        <v>0.4005665028124163</v>
       </c>
       <c r="Q40" s="3">
-        <v>0.0170095650024388</v>
+        <v>0.001686709795925334</v>
       </c>
       <c r="R40" s="3">
-        <v>0.0311289276584616</v>
+        <v>0.1126707299768249</v>
       </c>
       <c r="S40" s="3">
-        <v>0.058774490241265</v>
+        <v>0.04933448416505359</v>
       </c>
       <c r="T40" s="3">
-        <v>0.090688921115948</v>
+        <v>0.1244759724870448</v>
       </c>
       <c r="U40" s="3">
-        <v>0.910548834902968</v>
+        <v>0.2578225590994618</v>
       </c>
       <c r="V40" s="3">
-        <v>0.100493960202881</v>
+        <v>0.4019885220312489</v>
       </c>
       <c r="W40" s="3">
-        <v>0.96986811824016</v>
+        <v>0.01003961777288832</v>
       </c>
       <c r="X40" s="3">
-        <v>0.0252933729867449</v>
+        <v>0.01628302655988689</v>
       </c>
       <c r="Y40" s="3">
-        <v>0.0259641407151844</v>
+        <v>0.02456062557277738</v>
       </c>
       <c r="Z40" s="3">
-        <v>0.0602229836458442</v>
+        <v>0.04325419771236561</v>
       </c>
       <c r="AA40" s="3">
-        <v>0.128066239280926</v>
+        <v>0.0836957590470987</v>
       </c>
       <c r="AB40" s="3">
-        <v>0.300240837671941</v>
+        <v>0.155559060783905</v>
       </c>
       <c r="AC40" s="3">
-        <v>0.264524007162751</v>
+        <v>0.2845541160667006</v>
       </c>
       <c r="AD40" s="3">
-        <v>0.115769454689711</v>
+        <v>0.1217868471845096</v>
       </c>
       <c r="AE40" s="3">
-        <v>0.00569568468707826</v>
+        <v>0.006051270682463805</v>
       </c>
       <c r="AF40" s="3">
-        <v>0.00626559489538469</v>
+        <v>0.0542601430932198</v>
       </c>
       <c r="AG40" s="3">
-        <v>0.0578496272070145</v>
+        <v>0.02542465507188807</v>
       </c>
       <c r="AH40" s="3">
-        <v>0.135320296852872</v>
+        <v>0.0492275712838357</v>
       </c>
       <c r="AI40" s="3">
-        <v>0.367646252203045</v>
+        <v>0.08400239440383761</v>
       </c>
       <c r="AJ40" s="3">
-        <v>0.0395173553113471</v>
+        <v>0.15994871625</v>
       </c>
       <c r="AK40" s="3">
-        <v>0.261462156764673</v>
+        <v>0.09727112486447953</v>
       </c>
       <c r="AL40" s="3">
-        <v>0.00415531201277974</v>
+        <v>0.005174734742797393</v>
       </c>
       <c r="AM40" s="4">
         <v>0</v>
       </c>
       <c r="AN40" s="3">
-        <v>0.0349978374098548</v>
+        <v>0.08029293314030284</v>
       </c>
       <c r="AO40" s="3">
-        <v>0.106733394970188</v>
+        <v>0.1252524800792879</v>
       </c>
       <c r="AP40" s="3">
-        <v>0.0364791832400827</v>
+        <v>0.16011744484375</v>
       </c>
       <c r="AQ40" s="4">
         <v>0</v>
       </c>
       <c r="AR40" s="3">
-        <v>0.039603992754638</v>
+        <v>0.1600517048437494</v>
       </c>
       <c r="AS40" s="3">
-        <v>0.00868806633360319</v>
+        <v>0.005314803811685587</v>
       </c>
       <c r="AT40" s="3">
-        <v>0.0226995147493118</v>
+        <v>0.04790798124138584</v>
       </c>
       <c r="AU40" s="3">
-        <v>0.0291885179165175</v>
+        <v>0.02990711354008257</v>
       </c>
       <c r="AV40" s="3">
-        <v>0.0442626042635732</v>
+        <v>0.04665126158744137</v>
       </c>
       <c r="AW40" s="3">
-        <v>0.392739595390781</v>
+        <v>0.06839171005050726</v>
       </c>
       <c r="AX40" s="3">
-        <v>0.0404677095300405</v>
+        <v>0.1602204334374999</v>
       </c>
       <c r="AY40" s="3">
-        <v>0.374309042425473</v>
+        <v>0.09691561177208496</v>
       </c>
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3"/>
@@ -5706,7 +5718,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -5882,154 +5894,154 @@
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="3">
-        <v>0.110858790011455</v>
+        <v>0.007583692382982454</v>
       </c>
       <c r="D42" s="3">
-        <v>0.273717345020766</v>
+        <v>0.109749955206192</v>
       </c>
       <c r="E42" s="3">
-        <v>0.132378613387177</v>
+        <v>0.09824608318290984</v>
       </c>
       <c r="F42" s="3">
-        <v>0.30757120025513</v>
+        <v>0.1329328300548917</v>
       </c>
       <c r="G42" s="3">
-        <v>0.885276688750975</v>
+        <v>0.1723611640057466</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0888808893825581</v>
+        <v>0.3605114151562492</v>
       </c>
       <c r="I42" s="3">
-        <v>0.890934895179869</v>
+        <v>0.2008919491223103</v>
       </c>
       <c r="J42" s="3">
-        <v>0.0167856821106239</v>
+        <v>0.004097259014168519</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>0.000362815708152219</v>
+        <v>0.08776665484821683</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>0.0880171128472648</v>
+        <v>0.3617925178906241</v>
       </c>
       <c r="O42" s="4">
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>0.0886313118831156</v>
+        <v>0.3605114151562492</v>
       </c>
       <c r="Q42" s="3">
-        <v>0.0328591928575013</v>
+        <v>0.003734783682397769</v>
       </c>
       <c r="R42" s="3">
-        <v>0.080144888296198</v>
+        <v>0.09458036241473644</v>
       </c>
       <c r="S42" s="3">
-        <v>0.0286967810278567</v>
+        <v>0.07764368588270104</v>
       </c>
       <c r="T42" s="3">
-        <v>0.0603941783493325</v>
+        <v>0.1206451831803356</v>
       </c>
       <c r="U42" s="3">
-        <v>0.822657014341103</v>
+        <v>0.1890216904133081</v>
       </c>
       <c r="V42" s="3">
-        <v>0.0886628584197659</v>
+        <v>0.3617925178906241</v>
       </c>
       <c r="W42" s="3">
-        <v>0.879754723099607</v>
+        <v>0.1092898271237852</v>
       </c>
       <c r="X42" s="3">
-        <v>0.0107682367036472</v>
+        <v>0.01467629146201443</v>
       </c>
       <c r="Y42" s="3">
-        <v>0.0156708001126281</v>
+        <v>0.01871555836793848</v>
       </c>
       <c r="Z42" s="3">
-        <v>0.0343489238511345</v>
+        <v>0.03128313512249697</v>
       </c>
       <c r="AA42" s="3">
-        <v>0.31571026125</v>
+        <v>0.06666366687991979</v>
       </c>
       <c r="AB42" s="3">
-        <v>0.282570059828806</v>
+        <v>0.08790995319720522</v>
       </c>
       <c r="AC42" s="3">
-        <v>0.238793317077803</v>
+        <v>0.1681537459747835</v>
       </c>
       <c r="AD42" s="3">
-        <v>0.103718502702554</v>
+        <v>0.03559307523196611</v>
       </c>
       <c r="AE42" s="3">
-        <v>0.00646343076036404</v>
+        <v>0.008791997998785273</v>
       </c>
       <c r="AF42" s="3">
-        <v>0.0292875990767129</v>
+        <v>0.04380850607664516</v>
       </c>
       <c r="AG42" s="3">
-        <v>0.0348110397485515</v>
+        <v>0.02487681006307435</v>
       </c>
       <c r="AH42" s="3">
-        <v>0.0654953951008385</v>
+        <v>0.04889240204092654</v>
       </c>
       <c r="AI42" s="3">
-        <v>0.270787507599443</v>
+        <v>0.05880363784653275</v>
       </c>
       <c r="AJ42" s="3">
-        <v>0.0248061864608787</v>
+        <v>0.1196124487499999</v>
       </c>
       <c r="AK42" s="3">
-        <v>0.178000633353542</v>
+        <v>0.05663545449557875</v>
       </c>
       <c r="AL42" s="3">
-        <v>0.00981790595549025</v>
+        <v>0.0053934488588393</v>
       </c>
       <c r="AM42" s="4">
         <v>0</v>
       </c>
       <c r="AN42" s="3">
-        <v>0.0102117154746532</v>
+        <v>0.03101890800849355</v>
       </c>
       <c r="AO42" s="4">
         <v>0</v>
       </c>
       <c r="AP42" s="3">
-        <v>0.0269192016059104</v>
+        <v>0.1199187832031249</v>
       </c>
       <c r="AQ42" s="4">
         <v>0</v>
       </c>
       <c r="AR42" s="3">
-        <v>0.0288062742121267</v>
+        <v>0.1198562294531249</v>
       </c>
       <c r="AS42" s="3">
-        <v>0.0239196755767197</v>
+        <v>0.004202493356598502</v>
       </c>
       <c r="AT42" s="3">
-        <v>0.0626794928133034</v>
+        <v>0.03412818233085813</v>
       </c>
       <c r="AU42" s="3">
-        <v>0.0123869962345093</v>
+        <v>0.02564575236963629</v>
       </c>
       <c r="AV42" s="3">
-        <v>0.0261310141054466</v>
+        <v>0.03627363580840576</v>
       </c>
       <c r="AW42" s="3">
-        <v>0.27600498003927</v>
+        <v>0.05136285059843174</v>
       </c>
       <c r="AX42" s="3">
-        <v>0.0286178803944799</v>
+        <v>0.1201625639062499</v>
       </c>
       <c r="AY42" s="3">
-        <v>0.191199804004925</v>
+        <v>0.04726638011589138</v>
       </c>
       <c r="AZ42" s="3"/>
       <c r="BA42" s="3"/>
@@ -6058,154 +6070,154 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="12"/>
       <c r="B43" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="3">
-        <v>0.110858790011455</v>
+        <v>0.007583692382982454</v>
       </c>
       <c r="D43" s="3">
-        <v>0.273717345020766</v>
+        <v>0.109749955206192</v>
       </c>
       <c r="E43" s="3">
-        <v>0.132378613387177</v>
+        <v>0.09824608318290984</v>
       </c>
       <c r="F43" s="3">
-        <v>0.30757120025513</v>
+        <v>0.1329328300548917</v>
       </c>
       <c r="G43" s="3">
-        <v>0.885276688750975</v>
+        <v>0.1723611640057466</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0888808893825581</v>
+        <v>0.3605114151562492</v>
       </c>
       <c r="I43" s="3">
-        <v>0.890934895179869</v>
+        <v>0.2008919491223103</v>
       </c>
       <c r="J43" s="3">
-        <v>0.0167856821106239</v>
+        <v>0.004097259014168519</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>0.000362815708152219</v>
+        <v>0.08776665484821683</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0.0880171128472648</v>
+        <v>0.3617925178906241</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0.0886313118831156</v>
+        <v>0.3605114151562492</v>
       </c>
       <c r="Q43" s="3">
-        <v>0.0328591928575013</v>
+        <v>0.003734783682397769</v>
       </c>
       <c r="R43" s="3">
-        <v>0.080144888296198</v>
+        <v>0.09458036241473644</v>
       </c>
       <c r="S43" s="3">
-        <v>0.0286967810278567</v>
+        <v>0.07764368588270104</v>
       </c>
       <c r="T43" s="3">
-        <v>0.0603941783493325</v>
+        <v>0.1206451831803356</v>
       </c>
       <c r="U43" s="3">
-        <v>0.822657014341103</v>
+        <v>0.1890216904133081</v>
       </c>
       <c r="V43" s="3">
-        <v>0.0886628584197659</v>
+        <v>0.3617925178906241</v>
       </c>
       <c r="W43" s="3">
-        <v>0.879754723099607</v>
+        <v>0.1092898271237852</v>
       </c>
       <c r="X43" s="3">
-        <v>0.0107682367036472</v>
+        <v>0.01467629146201443</v>
       </c>
       <c r="Y43" s="3">
-        <v>0.0156708001126281</v>
+        <v>0.01871555836793848</v>
       </c>
       <c r="Z43" s="3">
-        <v>0.0343489238511345</v>
+        <v>0.03128313512249697</v>
       </c>
       <c r="AA43" s="3">
-        <v>0.31571026125</v>
+        <v>0.06666366687991979</v>
       </c>
       <c r="AB43" s="3">
-        <v>0.282570059828806</v>
+        <v>0.08790995319720522</v>
       </c>
       <c r="AC43" s="3">
-        <v>0.238793317077803</v>
+        <v>0.1681537459747835</v>
       </c>
       <c r="AD43" s="3">
-        <v>0.103718502702554</v>
+        <v>0.03559307523196611</v>
       </c>
       <c r="AE43" s="3">
-        <v>0.00646343076036404</v>
+        <v>0.008791997998785273</v>
       </c>
       <c r="AF43" s="3">
-        <v>0.0292875990767129</v>
+        <v>0.04380850607664516</v>
       </c>
       <c r="AG43" s="3">
-        <v>0.0348110397485515</v>
+        <v>0.02487681006307435</v>
       </c>
       <c r="AH43" s="3">
-        <v>0.0654953951008385</v>
+        <v>0.04889240204092654</v>
       </c>
       <c r="AI43" s="3">
-        <v>0.270787507599443</v>
+        <v>0.05880363784653275</v>
       </c>
       <c r="AJ43" s="3">
-        <v>0.0248061864608787</v>
+        <v>0.1196124487499999</v>
       </c>
       <c r="AK43" s="3">
-        <v>0.178000633353542</v>
+        <v>0.05663545449557875</v>
       </c>
       <c r="AL43" s="3">
-        <v>0.00981790595549025</v>
+        <v>0.0053934488588393</v>
       </c>
       <c r="AM43" s="4">
         <v>0</v>
       </c>
       <c r="AN43" s="3">
-        <v>0.0102117154746532</v>
+        <v>0.03101890800849355</v>
       </c>
       <c r="AO43" s="4">
         <v>0</v>
       </c>
       <c r="AP43" s="3">
-        <v>0.0269192016059104</v>
+        <v>0.1199187832031249</v>
       </c>
       <c r="AQ43" s="4">
         <v>0</v>
       </c>
       <c r="AR43" s="3">
-        <v>0.0288062742121267</v>
+        <v>0.1198562294531249</v>
       </c>
       <c r="AS43" s="3">
-        <v>0.0239196755767197</v>
+        <v>0.004202493356598502</v>
       </c>
       <c r="AT43" s="3">
-        <v>0.0626794928133034</v>
+        <v>0.03412818233085813</v>
       </c>
       <c r="AU43" s="3">
-        <v>0.0123869962345093</v>
+        <v>0.02564575236963629</v>
       </c>
       <c r="AV43" s="3">
-        <v>0.0261310141054466</v>
+        <v>0.03627363580840576</v>
       </c>
       <c r="AW43" s="3">
-        <v>0.27600498003927</v>
+        <v>0.05136285059843174</v>
       </c>
       <c r="AX43" s="3">
-        <v>0.0286178803944799</v>
+        <v>0.1201625639062499</v>
       </c>
       <c r="AY43" s="3">
-        <v>0.191199804004925</v>
+        <v>0.04726638011589138</v>
       </c>
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
